--- a/数据整理/stocks/A股/创业板/300481-濮阳惠成.xlsx
+++ b/数据整理/stocks/A股/创业板/300481-濮阳惠成.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>10.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>60.91</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.73</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2861</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -576,15 +606,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.77</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.42</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4398</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300481-濮阳惠成.xlsx
+++ b/数据整理/stocks/A股/创业板/300481-濮阳惠成.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -631,4 +632,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010695</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏磐益一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7427</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009837</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1507</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009838</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300481-濮阳惠成.xlsx
+++ b/数据整理/stocks/A股/创业板/300481-濮阳惠成.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -802,4 +803,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009837</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1440</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009838</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300481-濮阳惠成.xlsx
+++ b/数据整理/stocks/A股/创业板/300481-濮阳惠成.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -935,4 +936,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300481-濮阳惠成.xlsx
+++ b/数据整理/stocks/A股/创业板/300481-濮阳惠成.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -944,7 +945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -955,17 +956,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -975,14 +996,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.15</v>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>59.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2998</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -991,14 +1034,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2211</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.9</v>
       </c>
     </row>
     <row r="4">
@@ -1007,14 +1072,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.44</v>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>63.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1744</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1023,13 +1110,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>009837</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009838</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.29</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300481-濮阳惠成.xlsx
+++ b/数据整理/stocks/A股/创业板/300481-濮阳惠成.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1229,7 +1230,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1240,17 +1241,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1260,14 +1281,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.73</v>
+          <t>010695</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏磐益一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4559</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1276,14 +1319,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.15</v>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3042</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1292,14 +1357,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.9</v>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1880</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1308,14 +1395,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.44</v>
+          <t>162204</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰达宏利行业精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1361</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1324,13 +1433,469 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>003501</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>49.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008300</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008301</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>49.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.29</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300481-濮阳惠成.xlsx
+++ b/数据整理/stocks/A股/创业板/300481-濮阳惠成.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1778,7 +1779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1789,17 +1790,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1809,14 +1830,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.22</v>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3152</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1825,14 +1868,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.73</v>
+          <t>014062</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城专精特新量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2122</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1841,14 +1906,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.15</v>
+          <t>162204</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利行业精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1987</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1857,14 +1944,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9</v>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1880</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1873,14 +1982,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.44</v>
+          <t>014063</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城专精特新量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1436</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1889,13 +2020,521 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>003501</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014232</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时专精特新主题混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014233</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时专精特新主题混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013280</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005305</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信合利混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004608</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>42.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>51.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004609</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>42.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005306</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信合利混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>51.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.29</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300481-濮阳惠成.xlsx
+++ b/数据整理/stocks/A股/创业板/300481-濮阳惠成.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>1.4</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>0.73</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.15</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.44</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -600,6 +617,1578 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7688</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005028</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1850</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6217</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006314</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4553</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2953</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013561</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中融匠心优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2447</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519956</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>39.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1502</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1453</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003145</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中融竞争优势股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1361</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160529</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014356</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信企业成长三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006315</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010987</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004292</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华沪深港互联网股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008846</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24.15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014357</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长信企业成长三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.49</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009796</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014627</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通多策略福瑞混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>61.59</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006072</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010988</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013562</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融匠心优选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>501028</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>财通多策略福瑞混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>61.59</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>57.73</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004608</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>48.69</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008847</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>24.15</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>78.49</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>015389</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005095</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国泰量化成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009797</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004609</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>48.69</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005096</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国泰量化成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>519957</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>39.13</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>57.73</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014929</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1221,7 +2810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1769,7 +3358,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2053,7 +3642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2185,7 +3774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2355,7 +3944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2449,7 +4038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300481-濮阳惠成.xlsx
+++ b/数据整理/stocks/A股/创业板/300481-濮阳惠成.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>5.68</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D3" t="n">
-        <v>1.4</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>0.73</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.15</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.44</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -616,7 +633,991 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>60.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2861</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5903</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2358</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010738</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1957</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>360001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光大保德信量化股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014356</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信企业成长三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>016553</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方鑫悦15个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>37.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015429</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银证券专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>61.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014357</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信企业成长三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008846</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>52.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009796</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>25.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001364</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成景润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>28.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010739</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002383</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成趋势回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76.12</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011231</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015430</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银证券专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>61.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011232</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>29.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008847</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>016554</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方鑫悦15个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>37.58</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009797</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>25.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>52.21</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2188,7 +3189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2810,7 +3811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3358,7 +4359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3642,7 +4643,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3774,7 +4775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3944,7 +4945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4036,98 +5037,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009447</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>财通资管科技创新一年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10.48</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>60.91</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2861</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>